--- a/test/regression/xlsx_files/set_start_page01.xlsx
+++ b/test/regression/xlsx_files/set_start_page01.xlsx
@@ -361,6 +361,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="200" verticalDpi="200"/>
 </worksheet>
 </file>